--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori2/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori2/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2087,21 +2087,21 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Large Wind Velocity . Fly with caution .</t>
+          <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2126,52 +2126,52 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Large Wind Velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Max Altitude Approached</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2186,52 +2186,52 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Max Altitude Approached</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing . Fly with caution .</t>
+          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2246,52 +2246,52 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment . Manually adjust flight route or return to home .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing . Fly with caution .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2306,52 +2306,52 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Remote controller in high interference environment</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked . Lightly press it to adjust .</t>
+          <t>Remote controller in high interference environment . Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2366,52 +2366,52 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
+          <t>Remote Controller Right Dial Locked . Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Remote controller signal weak</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2426,52 +2426,52 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Adjust remote controller antennas</t>
+          <t>Remote controller signal weak</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT . Data Recorder File Index is 1 .</t>
+          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 1</t>
+          <t>Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2486,52 +2486,52 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Running Flight Simulator . Restart aircraft to take off .</t>
+          <t>RTH Altitude : 98FT . Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Running Flight Simulator</t>
+          <t>RTH Altitude : 98FT</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2546,52 +2546,52 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Restart aircraft to take off</t>
+          <t>Running Flight Simulator</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Satellite positioning off . Fly with Caution .</t>
+          <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Satellite positioning off</t>
+          <t>Restart aircraft to take off</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2606,72 +2606,72 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Fly with Caution</t>
+          <t>Satellite positioning off</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
+          <t>Satellite positioning off . Fly with Caution .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow</t>
+          <t>Fly with Caution</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Strong Interference Detected . Be careful when flying long distances .</t>
+          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2687,21 +2687,21 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Strong Interference Detected . Be careful when flying long distances .</t>
+          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Strong Interference Detected</t>
+          <t>SD card write speed is too slow</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2717,21 +2717,21 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Strong Interference Now . Fly with caution .</t>
+          <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2747,31 +2747,31 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
+          <t>Strong Interference Now . Fly with caution .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2786,22 +2786,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Contact DJI support</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2816,42 +2816,42 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>Contact DJI support</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked . Fly with caution .</t>
+          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2876,52 +2876,52 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate . Fly with caution .</t>
+          <t>Vision sensor(s) blocked . Fly with caution .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2936,52 +2936,52 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Weak signal . Adjust antennas .</t>
+          <t>Visual positioning inaccurate . Fly with caution .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2996,52 +2996,52 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Weak signal . Adjust antennas .</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3056,52 +3056,52 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
+          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3116,20 +3116,50 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0-9</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>45</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>Please fly away or land with caution</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>11-17</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori2/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori2/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2087,21 +2087,21 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
+          <t>Large Wind Velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2126,52 +2126,52 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Large Wind Velocity . Fly with caution .</t>
+          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Max Altitude Approached</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2186,52 +2186,52 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Max Altitude Approached</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing . Fly with caution .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2246,52 +2246,52 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing . Fly with caution .</t>
+          <t>Remote controller in high interference environment . Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Remote controller in high interference environment</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2306,52 +2306,52 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment . Manually adjust flight route or return to home .</t>
+          <t>Remote Controller Right Dial Locked . Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2366,52 +2366,52 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked . Lightly press it to adjust .</t>
+          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Remote controller signal weak</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2426,52 +2426,52 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Remote controller signal weak</t>
+          <t>Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
+          <t>RTH Altitude : 98FT . Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Adjust remote controller antennas</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2486,52 +2486,52 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 1</t>
+          <t>RTH Altitude : 98FT</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT . Data Recorder File Index is 1 .</t>
+          <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT</t>
+          <t>Running Flight Simulator</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2546,52 +2546,52 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Running Flight Simulator</t>
+          <t>Restart aircraft to take off</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Running Flight Simulator . Restart aircraft to take off .</t>
+          <t>Satellite positioning off . Fly with Caution .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Restart aircraft to take off</t>
+          <t>Satellite positioning off</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2606,72 +2606,72 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Satellite positioning off</t>
+          <t>Fly with Caution</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Satellite positioning off . Fly with Caution .</t>
+          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Fly with Caution</t>
+          <t>SD card write speed is too slow</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
+          <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2687,21 +2687,21 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
+          <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow</t>
+          <t>Strong Interference Detected</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2717,21 +2717,21 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Strong Interference Detected . Be careful when flying long distances .</t>
+          <t>Strong Interference Now . Fly with caution .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2747,31 +2747,31 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strong Interference Now . Fly with caution .</t>
+          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2786,22 +2786,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>Contact DJI support</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2816,42 +2816,42 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Contact DJI support</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
+          <t>Vision sensor(s) blocked . Fly with caution .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2876,52 +2876,52 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked . Fly with caution .</t>
+          <t>Visual positioning inaccurate . Fly with caution .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2936,52 +2936,52 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate . Fly with caution .</t>
+          <t>Weak signal . Adjust antennas .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2996,52 +2996,52 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Weak signal . Adjust antennas .</t>
+          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3056,52 +3056,52 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3116,50 +3116,20 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>Please fly away or land with caution</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>11-17</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>45</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Please fly away or land with caution</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
